--- a/songjiazhun/evidence.xlsx
+++ b/songjiazhun/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14760" tabRatio="500"/>
+    <workbookView windowWidth="27900" windowHeight="13060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
     <t>omniflix1rr5dtf6mvhfawf4d5vhav838ak8nugj07u7e5q</t>
   </si>
   <si>
-    <t>newWebGroup#8967</t>
+    <t>newWebGroup#4552</t>
   </si>
   <si>
     <t>no</t>
@@ -169,10 +169,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -194,8 +194,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,11 +207,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,16 +230,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,28 +262,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,9 +270,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,14 +285,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,34 +328,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -371,187 +371,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,65 +562,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -654,6 +595,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -662,141 +647,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1199,7 +1199,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1210,7 +1210,7 @@
     <col min="4" max="4" width="16.1339285714286" customWidth="1"/>
     <col min="5" max="5" width="18.1160714285714" customWidth="1"/>
     <col min="6" max="6" width="17.7410714285714" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
     <col min="8" max="8" width="23.0714285714286" customWidth="1"/>
   </cols>
   <sheetData>

--- a/songjiazhun/evidence.xlsx
+++ b/songjiazhun/evidence.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\QingLian\gon-workshop\gonEv\newWebGroup\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="13060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27900" windowHeight="13065" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="56">
   <si>
     <t>TeamName</t>
   </si>
@@ -163,18 +167,59 @@
   <si>
     <t>The Internal Transfer TxHash on IRISnet</t>
   </si>
+  <si>
+    <t>gon-irishub-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uptickd_7000-2</t>
+  </si>
+  <si>
+    <t>Album</t>
+  </si>
+  <si>
+    <t>nininikky</t>
+  </si>
+  <si>
+    <t>YUNGDevilboi</t>
+  </si>
+  <si>
+    <t>97EDEF68EBCBDB2B65DF96EBC4CF7274E152DF9AA09D0EC88F47D96419B980F7</t>
+  </si>
+  <si>
+    <t>5973605862AFE89A425E21731F746A13C81DAC04F4308D2377EFCDC280AB63E9</t>
+  </si>
+  <si>
+    <t>8F1139F2879EB034B0C0015DFFFECFF3D96B4FD5295F6BCF3C829A2B9037CE1D</t>
+  </si>
+  <si>
+    <t>7D29BF3F4AA33B8220EAD645263A5536E84E0B877CACE70FF0838C1410438BEE</t>
+  </si>
+  <si>
+    <t>A57913874FFEA59FE42A255BA19C129499E4C92F17AAC966718C79C90C48D6E0</t>
+  </si>
+  <si>
+    <t>0FB11C0FA5B4378C8D10C35A6FC491686CCE5AA2DC7D8F0334F88C47EE6B6DB2</t>
+  </si>
+  <si>
+    <t>ibc/A38F9C05BAC49E66E93866F40F3AB30BA71AEA1A7D7CD5D530EA997B34FBE201</t>
+  </si>
+  <si>
+    <t>3FEDD2B93341087999EB6E671ED4DB781C3988D58B4CE62F1DD65A90CF3948C7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -185,172 +230,28 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,194 +270,8 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -564,243 +279,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -809,58 +292,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -933,6 +370,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1190,31 +630,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="14.6160714285714" customWidth="1"/>
-    <col min="2" max="2" width="14.8839285714286" customWidth="1"/>
-    <col min="3" max="3" width="17.5089285714286" customWidth="1"/>
-    <col min="4" max="4" width="16.1339285714286" customWidth="1"/>
-    <col min="5" max="5" width="18.1160714285714" customWidth="1"/>
-    <col min="6" max="6" width="17.7410714285714" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="23.0714285714286" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.2" spans="1:8">
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,7 +680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:8">
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1266,7 +706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1293,27 +733,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1321,7 +758,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -1330,27 +767,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1358,7 +792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -1367,27 +801,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,7 +826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -1404,27 +835,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1432,7 +860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -1441,27 +869,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1469,7 +894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1477,38 +902,35 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:1">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1516,7 +938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1524,38 +946,35 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:1">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1563,7 +982,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1571,38 +990,35 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:1">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1610,7 +1026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1618,38 +1034,35 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:1">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1657,7 +1070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1665,38 +1078,35 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:1">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1704,7 +1114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1712,38 +1122,37 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:1">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="2" width="17.8839285714286" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1751,7 +1160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -1759,28 +1168,33 @@
         <v>27</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1788,7 +1202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1796,38 +1210,35 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:1">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1835,7 +1246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1843,52 +1254,50 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:1">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" ht="13.2" spans="1:1">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="16.4" customHeight="1" spans="1:1">
+    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1897,34 +1306,34 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" ht="13.2" spans="1:1">
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:1">
+    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1933,34 +1342,34 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" ht="13.2" spans="1:1">
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:1">
+    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1969,34 +1378,34 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" ht="13.2" spans="1:1">
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:1">
+    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -2005,21 +1414,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="2" width="17.8839285714286" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:3">
+    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2030,7 +1438,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:3">
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -2041,29 +1449,50 @@
         <v>29</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="17.8839285714286" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:4">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2077,7 +1506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:4">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -2091,29 +1520,42 @@
         <v>33</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="17.8839285714286" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:4">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2127,7 +1569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:4">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -2141,29 +1583,42 @@
         <v>33</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="17.8839285714286" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:4">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2177,7 +1632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:4">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -2191,31 +1646,44 @@
         <v>33</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="17.8839285714286" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.2589285714286" customWidth="1"/>
-    <col min="4" max="4" width="14.3839285714286" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.2" spans="1:4">
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2229,7 +1697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:4">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -2243,28 +1711,39 @@
         <v>33</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -2272,7 +1751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -2281,27 +1760,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -2309,7 +1785,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -2318,8 +1794,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>